--- a/biology/Botanique/Lilium_bulbiferum/Lilium_bulbiferum.xlsx
+++ b/biology/Botanique/Lilium_bulbiferum/Lilium_bulbiferum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lilium bulbiferum est une espèce de lis indigène des montagnes d’Europe centrale et méridionale. Il se présente sous deux variétés :
 Lilium bulbiferum L. var. croceum (Chaix) Baker, le lis orangé à fleurs orangées, est indigène du massif du Jura, des Alpes occidentales, du versant espagnol des Pyrénées, des Apennins et de Corse.
@@ -519,7 +531,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lilium bulbiferum est de culture facile en sol normal à exposition ensoleillée. La variété bulbiferum se dissémine facilement via ses bulbilles.Lilium bulbiferum est un des parents de l’hybride suranné Lilium ×hollandicum.
 </t>
@@ -550,9 +564,11 @@
           <t>Usages médicinaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon une étude ethnobotanique et du patois local, faite par Françoise et Grégoire Nicollier à Bagnes (Suisse) et publiée en 1984, les feuilles de Lilium bulbiferum étaient utilisées, appliquées sur la peau pour traiter les infections[1]. Cuites avec du pain blanc et du lait, elle produisait aussi une pâte que l'on pouvait appliquer sur les abcès[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon une étude ethnobotanique et du patois local, faite par Françoise et Grégoire Nicollier à Bagnes (Suisse) et publiée en 1984, les feuilles de Lilium bulbiferum étaient utilisées, appliquées sur la peau pour traiter les infections. Cuites avec du pain blanc et du lait, elle produisait aussi une pâte que l'on pouvait appliquer sur les abcès.
 </t>
         </is>
       </c>
